--- a/Data/g5.4.xlsx
+++ b/Data/g5.4.xlsx
@@ -1,43 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,94 +48,21 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,20 +350,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Região</t>
@@ -441,17 +365,17 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Variável</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Ano</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Empresas - unidades da federação de origem - sede</t>
-        </is>
-      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Pessoal ocupado em 31/12</t>
+          <t>Valor</t>
         </is>
       </c>
     </row>
@@ -463,14 +387,16 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2010-01-01</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>265</v>
-      </c>
-      <c r="D2" t="n">
-        <v>25612</v>
+          <t>Empresas - unidades da federação de origem - sede</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>31/12/2012</t>
+        </is>
+      </c>
+      <c r="D2">
+        <v>303</v>
       </c>
     </row>
     <row r="3">
@@ -481,14 +407,16 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2011-01-01</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>374</v>
-      </c>
-      <c r="D3" t="n">
-        <v>29390</v>
+          <t>Pessoal ocupado em 31/12</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>31/12/2012</t>
+        </is>
+      </c>
+      <c r="D3">
+        <v>30113</v>
       </c>
     </row>
     <row r="4">
@@ -499,14 +427,16 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2012-01-01</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>303</v>
-      </c>
-      <c r="D4" t="n">
-        <v>30113</v>
+          <t>Empresas - unidades da federação de origem - sede</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>31/12/2013</t>
+        </is>
+      </c>
+      <c r="D4">
+        <v>385</v>
       </c>
     </row>
     <row r="5">
@@ -517,13 +447,15 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2013-01-01</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>385</v>
-      </c>
-      <c r="D5" t="n">
+          <t>Pessoal ocupado em 31/12</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>31/12/2013</t>
+        </is>
+      </c>
+      <c r="D5">
         <v>30034</v>
       </c>
     </row>
@@ -535,14 +467,16 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2014-01-01</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
+          <t>Empresas - unidades da federação de origem - sede</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>31/12/2014</t>
+        </is>
+      </c>
+      <c r="D6">
         <v>422</v>
-      </c>
-      <c r="D6" t="n">
-        <v>31834</v>
       </c>
     </row>
     <row r="7">
@@ -553,14 +487,16 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2015-01-01</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>467</v>
-      </c>
-      <c r="D7" t="n">
-        <v>30633</v>
+          <t>Pessoal ocupado em 31/12</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>31/12/2014</t>
+        </is>
+      </c>
+      <c r="D7">
+        <v>31834</v>
       </c>
     </row>
     <row r="8">
@@ -571,14 +507,16 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2016-01-01</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>452</v>
-      </c>
-      <c r="D8" t="n">
-        <v>20058</v>
+          <t>Empresas - unidades da federação de origem - sede</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>31/12/2015</t>
+        </is>
+      </c>
+      <c r="D8">
+        <v>467</v>
       </c>
     </row>
     <row r="9">
@@ -589,14 +527,16 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2017-01-01</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>359</v>
-      </c>
-      <c r="D9" t="n">
-        <v>17367</v>
+          <t>Pessoal ocupado em 31/12</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>31/12/2015</t>
+        </is>
+      </c>
+      <c r="D9">
+        <v>30633</v>
       </c>
     </row>
     <row r="10">
@@ -607,14 +547,16 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2018-01-01</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>377</v>
-      </c>
-      <c r="D10" t="n">
-        <v>17844</v>
+          <t>Empresas - unidades da federação de origem - sede</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>31/12/2016</t>
+        </is>
+      </c>
+      <c r="D10">
+        <v>452</v>
       </c>
     </row>
     <row r="11">
@@ -625,14 +567,16 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2019-01-01</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>293</v>
-      </c>
-      <c r="D11" t="n">
-        <v>14574</v>
+          <t>Pessoal ocupado em 31/12</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>31/12/2016</t>
+        </is>
+      </c>
+      <c r="D11">
+        <v>20058</v>
       </c>
     </row>
     <row r="12">
@@ -643,14 +587,16 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2020-01-01</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>349</v>
-      </c>
-      <c r="D12" t="n">
-        <v>13056</v>
+          <t>Empresas - unidades da federação de origem - sede</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>31/12/2017</t>
+        </is>
+      </c>
+      <c r="D12">
+        <v>359</v>
       </c>
     </row>
     <row r="13">
@@ -661,17 +607,179 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2021-01-01</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
+          <t>Pessoal ocupado em 31/12</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>31/12/2017</t>
+        </is>
+      </c>
+      <c r="D13">
+        <v>17367</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Empresas - unidades da federação de origem - sede</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>31/12/2018</t>
+        </is>
+      </c>
+      <c r="D14">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Pessoal ocupado em 31/12</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>31/12/2018</t>
+        </is>
+      </c>
+      <c r="D15">
+        <v>17844</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Empresas - unidades da federação de origem - sede</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>31/12/2019</t>
+        </is>
+      </c>
+      <c r="D16">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Pessoal ocupado em 31/12</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>31/12/2019</t>
+        </is>
+      </c>
+      <c r="D17">
+        <v>14574</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Empresas - unidades da federação de origem - sede</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>31/12/2020</t>
+        </is>
+      </c>
+      <c r="D18">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Pessoal ocupado em 31/12</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>31/12/2020</t>
+        </is>
+      </c>
+      <c r="D19">
+        <v>13056</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Empresas - unidades da federação de origem - sede</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>31/12/2021</t>
+        </is>
+      </c>
+      <c r="D20">
         <v>408</v>
       </c>
-      <c r="D13" t="n">
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Pessoal ocupado em 31/12</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>31/12/2021</t>
+        </is>
+      </c>
+      <c r="D21">
         <v>13113</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Data/g5.4.xlsx
+++ b/Data/g5.4.xlsx
@@ -1,46 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -48,21 +45,94 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -350,14 +420,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
+    <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Região</t>
@@ -365,17 +441,17 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Variável</t>
+          <t>Ano</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Ano</t>
+          <t>Empresas - unidades da federação de origem - sede</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Valor</t>
+          <t>Pessoal ocupado em 31/12</t>
         </is>
       </c>
     </row>
@@ -387,16 +463,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Empresas - unidades da federação de origem - sede</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>31/12/2012</t>
-        </is>
-      </c>
-      <c r="D2">
-        <v>303</v>
+          <t>01/01/2010</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>265</v>
+      </c>
+      <c r="D2" t="n">
+        <v>25612</v>
       </c>
     </row>
     <row r="3">
@@ -407,16 +481,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pessoal ocupado em 31/12</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>31/12/2012</t>
-        </is>
-      </c>
-      <c r="D3">
-        <v>30113</v>
+          <t>01/01/2011</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>374</v>
+      </c>
+      <c r="D3" t="n">
+        <v>29390</v>
       </c>
     </row>
     <row r="4">
@@ -427,16 +499,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Empresas - unidades da federação de origem - sede</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>31/12/2013</t>
-        </is>
-      </c>
-      <c r="D4">
-        <v>385</v>
+          <t>01/01/2012</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>303</v>
+      </c>
+      <c r="D4" t="n">
+        <v>30113</v>
       </c>
     </row>
     <row r="5">
@@ -447,15 +517,13 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pessoal ocupado em 31/12</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>31/12/2013</t>
-        </is>
-      </c>
-      <c r="D5">
+          <t>01/01/2013</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>385</v>
+      </c>
+      <c r="D5" t="n">
         <v>30034</v>
       </c>
     </row>
@@ -467,16 +535,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Empresas - unidades da federação de origem - sede</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>31/12/2014</t>
-        </is>
-      </c>
-      <c r="D6">
+          <t>01/01/2014</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
         <v>422</v>
+      </c>
+      <c r="D6" t="n">
+        <v>31834</v>
       </c>
     </row>
     <row r="7">
@@ -487,16 +553,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Pessoal ocupado em 31/12</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>31/12/2014</t>
-        </is>
-      </c>
-      <c r="D7">
-        <v>31834</v>
+          <t>01/01/2015</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>467</v>
+      </c>
+      <c r="D7" t="n">
+        <v>30633</v>
       </c>
     </row>
     <row r="8">
@@ -507,16 +571,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Empresas - unidades da federação de origem - sede</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>31/12/2015</t>
-        </is>
-      </c>
-      <c r="D8">
-        <v>467</v>
+          <t>01/01/2016</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>452</v>
+      </c>
+      <c r="D8" t="n">
+        <v>20058</v>
       </c>
     </row>
     <row r="9">
@@ -527,16 +589,14 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Pessoal ocupado em 31/12</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>31/12/2015</t>
-        </is>
-      </c>
-      <c r="D9">
-        <v>30633</v>
+          <t>01/01/2017</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>359</v>
+      </c>
+      <c r="D9" t="n">
+        <v>17367</v>
       </c>
     </row>
     <row r="10">
@@ -547,16 +607,14 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Empresas - unidades da federação de origem - sede</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>31/12/2016</t>
-        </is>
-      </c>
-      <c r="D10">
-        <v>452</v>
+          <t>01/01/2018</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>377</v>
+      </c>
+      <c r="D10" t="n">
+        <v>17844</v>
       </c>
     </row>
     <row r="11">
@@ -567,16 +625,14 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Pessoal ocupado em 31/12</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>31/12/2016</t>
-        </is>
-      </c>
-      <c r="D11">
-        <v>20058</v>
+          <t>01/01/2019</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>293</v>
+      </c>
+      <c r="D11" t="n">
+        <v>14574</v>
       </c>
     </row>
     <row r="12">
@@ -587,16 +643,14 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Empresas - unidades da federação de origem - sede</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>31/12/2017</t>
-        </is>
-      </c>
-      <c r="D12">
-        <v>359</v>
+          <t>01/01/2020</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>349</v>
+      </c>
+      <c r="D12" t="n">
+        <v>13056</v>
       </c>
     </row>
     <row r="13">
@@ -607,179 +661,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Pessoal ocupado em 31/12</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>31/12/2017</t>
-        </is>
-      </c>
-      <c r="D13">
-        <v>17367</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Sergipe</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Empresas - unidades da federação de origem - sede</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>31/12/2018</t>
-        </is>
-      </c>
-      <c r="D14">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Sergipe</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Pessoal ocupado em 31/12</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>31/12/2018</t>
-        </is>
-      </c>
-      <c r="D15">
-        <v>17844</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Sergipe</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Empresas - unidades da federação de origem - sede</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>31/12/2019</t>
-        </is>
-      </c>
-      <c r="D16">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Sergipe</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Pessoal ocupado em 31/12</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>31/12/2019</t>
-        </is>
-      </c>
-      <c r="D17">
-        <v>14574</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Sergipe</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Empresas - unidades da federação de origem - sede</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>31/12/2020</t>
-        </is>
-      </c>
-      <c r="D18">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Sergipe</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Pessoal ocupado em 31/12</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>31/12/2020</t>
-        </is>
-      </c>
-      <c r="D19">
-        <v>13056</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Sergipe</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Empresas - unidades da federação de origem - sede</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>31/12/2021</t>
-        </is>
-      </c>
-      <c r="D20">
+          <t>01/01/2021</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
         <v>408</v>
       </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Sergipe</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Pessoal ocupado em 31/12</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>31/12/2021</t>
-        </is>
-      </c>
-      <c r="D21">
+      <c r="D13" t="n">
         <v>13113</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Data/g5.4.xlsx
+++ b/Data/g5.4.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -650,7 +650,7 @@
         <v>349</v>
       </c>
       <c r="D12" t="n">
-        <v>13056</v>
+        <v>13092</v>
       </c>
     </row>
     <row r="13">
@@ -665,10 +665,28 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D13" t="n">
-        <v>13113</v>
+        <v>13600</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>01/01/2022</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>393</v>
+      </c>
+      <c r="D14" t="n">
+        <v>15447</v>
       </c>
     </row>
   </sheetData>

--- a/Data/g5.4.xlsx
+++ b/Data/g5.4.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -668,7 +668,7 @@
         <v>407</v>
       </c>
       <c r="D13" t="n">
-        <v>13600</v>
+        <v>13412</v>
       </c>
     </row>
     <row r="14">
@@ -683,10 +683,28 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="D14" t="n">
-        <v>15447</v>
+        <v>15575</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>01/01/2023</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>386</v>
+      </c>
+      <c r="D15" t="n">
+        <v>16060</v>
       </c>
     </row>
   </sheetData>
